--- a/bh3/548279414594769282_2021-07-17_12-04-09.xlsx
+++ b/bh3/548279414594769282_2021-07-17_12-04-09.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-29 22:48:24</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44406.95027777777</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -602,10 +616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-29 00:10:11</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44406.00707175926</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -669,10 +681,8 @@
           <t>4957772792</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-21 12:56:09</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44398.53899305555</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -736,10 +746,8 @@
           <t>4950896783</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-20 14:19:45</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44397.59704861111</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -811,10 +819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-20 13:13:52</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44397.5512962963</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -882,10 +888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-19 21:47:22</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44396.90789351852</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -957,10 +961,8 @@
           <t>4939894650</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-19 09:41:18</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44396.40368055556</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1034,10 +1036,8 @@
           <t>4939894650</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-19 01:42:41</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44396.07130787037</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1101,10 +1101,8 @@
           <t>4939921756</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:02:04</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44395.95976851852</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1172,10 +1170,8 @@
           <t>4939894650</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-18 22:59:25</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44395.95792824074</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1243,10 +1239,8 @@
           <t>4929423533</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-18 21:27:10</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44395.89386574074</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1318,10 +1312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-18 19:18:17</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44395.80436342592</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1394,10 +1386,8 @@
           <t>4933796248</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-18 19:13:54</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44395.80131944444</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1465,10 +1455,8 @@
           <t>4936855821</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:42:02</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44395.65418981481</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1528,10 +1516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:49:06</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44395.57576388889</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1603,10 +1589,8 @@
           <t>4935728867</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:38:50</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44395.5269675926</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1682,10 +1666,8 @@
           <t>4935119126</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:08:18</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44395.46409722222</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1753,10 +1735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-18 10:15:11</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44395.42721064815</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1828,10 +1808,8 @@
           <t>4933796248</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-18 09:22:20</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44395.39050925926</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -1895,10 +1873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:30:13</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44395.35431712963</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1966,10 +1942,8 @@
           <t>4933796248</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-18 03:18:00</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44395.1375</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2034,10 +2008,8 @@
           <t>4933789383</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-18 03:06:03</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44395.12920138889</v>
       </c>
       <c r="I23" t="n">
         <v>2</v>
@@ -2105,10 +2077,8 @@
           <t>4933796248</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-18 03:02:51</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44395.12697916666</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
@@ -2176,10 +2146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-18 00:17:34</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44395.01219907407</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2251,10 +2219,8 @@
           <t>4932776561</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:26:22</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44394.97664351852</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2322,10 +2288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-17 23:05:15</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44394.96197916667</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2390,10 +2354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:44:51</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44394.9478125</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2457,10 +2419,8 @@
           <t>4932192528</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:16:02</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44394.92780092593</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2528,10 +2488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:07:39</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44394.92197916667</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2599,10 +2557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:56:34</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44394.87261574074</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2678,10 +2634,8 @@
           <t>4928030160</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:43:59</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44394.86387731481</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2745,10 +2699,8 @@
           <t>4929810557</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-17 20:15:37</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44394.84417824074</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2812,10 +2764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-17 19:45:05</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44394.82297453703</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2887,10 +2837,8 @@
           <t>4928477473</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-17 19:16:17</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44394.80297453704</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2950,10 +2898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-17 18:53:17</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44394.78700231481</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3025,10 +2971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:53:59</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44394.74582175926</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3096,10 +3040,8 @@
           <t>4930179881</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:46:26</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44394.74057870371</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3167,10 +3109,8 @@
           <t>4930088183</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:32:09</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44394.73065972222</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3246,10 +3186,8 @@
           <t>4930033416</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:24:57</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44394.72565972222</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3325,10 +3263,8 @@
           <t>4929810557</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:22:37</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44394.72403935185</v>
       </c>
       <c r="I41" t="n">
         <v>2</v>
@@ -3404,10 +3340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:20:01</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44394.7222337963</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3483,10 +3417,8 @@
           <t>4929810557</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:17:32</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44394.72050925926</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3562,10 +3494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:07:17</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44394.7133912037</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3629,10 +3559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:53:52</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44394.70407407408</v>
       </c>
       <c r="I45" t="n">
         <v>3</v>
@@ -3700,10 +3628,8 @@
           <t>4929810557</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:50:44</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44394.70189814815</v>
       </c>
       <c r="I46" t="n">
         <v>5</v>
@@ -3771,10 +3697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:47:37</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44394.6997337963</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3850,10 +3774,8 @@
           <t>4928939896</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:46:23</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44394.69887731481</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3925,10 +3847,8 @@
           <t>4928939896</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:45:41</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44394.6983912037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4000,10 +3920,8 @@
           <t>4929734661</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:40:07</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44394.69452546296</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4071,10 +3989,8 @@
           <t>4929423533</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:35:34</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44394.69136574074</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4150,10 +4066,8 @@
           <t>4929238755</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:20:43</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44394.68105324074</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4229,10 +4143,8 @@
           <t>4929471361</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:14:03</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44394.67642361111</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4296,10 +4208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-17 16:08:12</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44394.67236111111</v>
       </c>
       <c r="I54" t="n">
         <v>4</v>
@@ -4375,10 +4285,8 @@
           <t>4929480880</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:56:24</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44394.66416666667</v>
       </c>
       <c r="I55" t="n">
         <v>4</v>
@@ -4442,10 +4350,8 @@
           <t>4929471361</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:54:38</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44394.66293981481</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4509,10 +4415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:54:20</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44394.66273148148</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4580,10 +4484,8 @@
           <t>4929433431</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:49:13</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44394.65917824074</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4647,10 +4549,8 @@
           <t>4929423533</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:47:30</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44394.65798611111</v>
       </c>
       <c r="I59" t="n">
         <v>5</v>
@@ -4714,10 +4614,8 @@
           <t>4929410536</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:43:23</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44394.65512731481</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4793,10 +4691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:41:17</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44394.65366898148</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4868,10 +4764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:35:17</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44394.64950231482</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4947,10 +4841,8 @@
           <t>4929354011</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:34:41</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44394.64908564815</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5018,10 +4910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:17:20</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44394.63703703704</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5090,10 +4980,8 @@
           <t>4929238755</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:15:09</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44394.63552083333</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5157,10 +5045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:13:36</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44394.63444444445</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5229,10 +5115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:12:09</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44394.6334375</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5296,10 +5180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:08:22</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44394.63081018518</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5371,10 +5253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:01:38</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44394.62613425926</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5446,10 +5326,8 @@
           <t>4929161548</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:00:22</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44394.62525462963</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5525,10 +5403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-17 15:00:05</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44394.62505787037</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5604,10 +5480,8 @@
           <t>4928177099</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:59:14</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44394.62446759259</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5671,10 +5545,8 @@
           <t>4929088025</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:47:26</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44394.61627314815</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5738,10 +5610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:47:04</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44394.61601851852</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5813,10 +5683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:44:50</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44394.61446759259</v>
       </c>
       <c r="I75" t="n">
         <v>3</v>
@@ -5884,10 +5752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:40:37</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44394.61153935185</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5951,10 +5817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:30:45</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44394.6046875</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6022,10 +5886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:30:26</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44394.6044675926</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6089,10 +5951,8 @@
           <t>4928995161</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:29:58</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44394.60414351852</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6160,10 +6020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:27:04</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44394.60212962963</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6231,10 +6089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:26:53</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44394.60200231482</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6302,10 +6158,8 @@
           <t>4928969105</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:26:51</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44394.60197916667</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6377,10 +6231,8 @@
           <t>4928939896</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:22:09</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44394.59871527777</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6444,10 +6296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:19:15</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44394.59670138889</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6517,10 +6367,8 @@
           <t>4928908384</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:16:19</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44394.59466435185</v>
       </c>
       <c r="I85" t="n">
         <v>1</v>
@@ -6602,10 +6450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:16:14</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44394.59460648148</v>
       </c>
       <c r="I86" t="n">
         <v>5</v>
@@ -6669,10 +6515,8 @@
           <t>4928879558</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:12:06</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44394.59173611111</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6748,10 +6592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:11:15</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44394.59114583334</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6827,10 +6669,8 @@
           <t>4928873590</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:10:54</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44394.59090277777</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6906,10 +6746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:09:27</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44394.58989583333</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6985,10 +6823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:09:26</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44394.58988425926</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7064,10 +6900,8 @@
           <t>4928869271</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:09:26</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44394.58988425926</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7139,10 +6973,8 @@
           <t>4928848114</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:06:16</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44394.58768518519</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7211,10 +7043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:03:40</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44394.58587962963</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7282,10 +7112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-17 14:03:32</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44394.58578703704</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7353,10 +7181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:59:06</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44394.58270833334</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7433,10 +7259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:57:06</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44394.58131944444</v>
       </c>
       <c r="I97" t="n">
         <v>30</v>
@@ -7500,10 +7324,8 @@
           <t>4928789252</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:56:58</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44394.58122685185</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7575,10 +7397,8 @@
           <t>4928780374</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:54:53</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44394.57978009259</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7651,10 +7471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:54:07</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44394.57924768519</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7718,10 +7536,8 @@
           <t>4928767968</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:53:41</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44394.57894675926</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7789,10 +7605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:53:14</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44394.57863425926</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7860,10 +7674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:51:13</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44394.5772337963</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7939,10 +7751,8 @@
           <t>4928741798</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:48:58</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44394.5756712963</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8014,10 +7824,8 @@
           <t>4928706975</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:43:33</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44394.57190972222</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8089,10 +7897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:42:53</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44394.57144675926</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8160,10 +7966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:40:26</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44394.56974537037</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8239,10 +8043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:36:05</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44394.56672453704</v>
       </c>
       <c r="I108" t="n">
         <v>3</v>
@@ -8318,10 +8120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:36:05</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44394.56672453704</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8395,10 +8195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:35:07</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44394.56605324074</v>
       </c>
       <c r="I110" t="n">
         <v>4</v>
@@ -8484,10 +8282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:34:55</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44394.56591435185</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -8572,10 +8368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:34:43</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44394.56577546296</v>
       </c>
       <c r="I112" t="n">
         <v>2</v>
@@ -8672,10 +8466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:34:37</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44394.56570601852</v>
       </c>
       <c r="I113" t="n">
         <v>4</v>
@@ -8751,10 +8543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:34:33</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44394.56565972222</v>
       </c>
       <c r="I114" t="n">
         <v>4</v>
@@ -8835,10 +8625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:34:26</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44394.5655787037</v>
       </c>
       <c r="I115" t="n">
         <v>2</v>
@@ -8914,10 +8702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:34:22</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44394.56553240741</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8993,10 +8779,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:33:47</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44394.56512731482</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9064,10 +8848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:32:10</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44394.56400462963</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9135,10 +8917,8 @@
           <t>4928623957</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:31:48</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44394.56375</v>
       </c>
       <c r="I119" t="n">
         <v>6</v>
@@ -9214,10 +8994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:31:41</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44394.56366898148</v>
       </c>
       <c r="I120" t="n">
         <v>4</v>
@@ -9289,10 +9067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:28:19</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44394.56133101852</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9364,10 +9140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:26:15</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44394.55989583334</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9439,10 +9213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:24:02</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44394.55835648148</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9514,10 +9286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:23:16</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44394.55782407407</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9593,10 +9363,8 @@
           <t>4928570940</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:22:35</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44394.55734953703</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9673,10 +9441,8 @@
           <t>4928557101</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:20:52</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44394.55615740741</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9749,10 +9515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:20:32</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44394.55592592592</v>
       </c>
       <c r="I127" t="n">
         <v>2</v>
@@ -9820,10 +9584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:20:22</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44394.55581018519</v>
       </c>
       <c r="I128" t="n">
         <v>2</v>
@@ -9891,10 +9653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:20:17</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44394.55575231482</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9958,10 +9718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:18:17</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44394.55436342592</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -10033,10 +9791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:18:07</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44394.55424768518</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10112,10 +9868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:17:48</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44394.55402777778</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10183,10 +9937,8 @@
           <t>4928532089</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:17:19</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44394.55369212963</v>
       </c>
       <c r="I133" t="n">
         <v>7</v>
@@ -10258,10 +10010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:16:39</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44394.55322916667</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10337,10 +10087,8 @@
           <t>4928520081</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:14:50</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44394.55196759259</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10408,10 +10156,8 @@
           <t>4928516752</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:14:49</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44394.55195601852</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10480,10 +10226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:14:26</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44394.55168981481</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10552,10 +10296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:14:25</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44394.55167824074</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10623,10 +10365,8 @@
           <t>4928495700</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:11:39</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44394.54975694444</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10702,10 +10442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:10:54</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44394.54923611111</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10773,10 +10511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:10:36</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44394.54902777778</v>
       </c>
       <c r="I141" t="n">
         <v>6</v>
@@ -10852,10 +10588,8 @@
           <t>4928477473</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:09:32</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44394.54828703704</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10931,10 +10665,8 @@
           <t>4928459541</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:07:05</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44394.54658564815</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11010,10 +10742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:06:27</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44394.54614583333</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -11081,10 +10811,8 @@
           <t>4928452948</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:06:16</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44394.54601851852</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11148,10 +10876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:05:17</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44394.54533564814</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11215,10 +10941,8 @@
           <t>4928450346</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:05:07</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44394.54521990741</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11290,10 +11014,8 @@
           <t>4928434910</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:04:27</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44394.54475694444</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11357,10 +11079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:04:14</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44394.54460648148</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11436,10 +11156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:03:57</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44394.54440972222</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11507,10 +11225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:03:05</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44394.54380787037</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11578,10 +11294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:02:43</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44394.54355324074</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11657,10 +11371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:02:30</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44394.54340277778</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11736,10 +11448,8 @@
           <t>4928331419</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:01:49</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44394.54292824074</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11807,10 +11517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:01:39</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44394.5428125</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11882,10 +11590,8 @@
           <t>4928226804</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:01:39</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44394.5428125</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11957,10 +11663,8 @@
           <t>4928331419</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:01:33</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44394.54274305556</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12028,10 +11732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-17 13:00:24</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44394.54194444444</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12099,10 +11801,8 @@
           <t>4928408472</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:59:49</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44394.54153935185</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12171,10 +11871,8 @@
           <t>4928392499</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:57:23</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44394.53984953704</v>
       </c>
       <c r="I160" t="n">
         <v>3</v>
@@ -12246,10 +11944,8 @@
           <t>4928387473</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:57:10</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44394.53969907408</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12321,10 +12017,8 @@
           <t>4928017049</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:56:42</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44394.539375</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12388,10 +12082,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:56:39</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44394.53934027778</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12455,10 +12147,8 @@
           <t>4928017049</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:56:01</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44394.53890046296</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12522,10 +12212,8 @@
           <t>4928377212</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:55:15</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44394.53836805555</v>
       </c>
       <c r="I165" t="n">
         <v>2</v>
@@ -12593,10 +12281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:54:43</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44394.53799768518</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12664,10 +12350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:54:35</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44394.53790509259</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12731,10 +12415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:54:34</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44394.53789351852</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12810,10 +12492,8 @@
           <t>4928353804</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:52:44</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44394.53662037037</v>
       </c>
       <c r="I169" t="n">
         <v>3</v>
@@ -12885,10 +12565,8 @@
           <t>4928349237</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:52:03</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44394.53614583334</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12956,10 +12634,8 @@
           <t>4928183588</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:49:49</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44394.53459490741</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13031,10 +12707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:48:54</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44394.53395833333</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13098,10 +12772,8 @@
           <t>4928331419</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:48:54</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44394.53395833333</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13169,10 +12841,8 @@
           <t>4928330096</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:48:23</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44394.53359953704</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13236,10 +12906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:47:55</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44394.53327546296</v>
       </c>
       <c r="I175" t="n">
         <v>169</v>
@@ -13315,10 +12983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:47:25</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44394.53292824074</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13390,10 +13056,8 @@
           <t>4928313037</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:46:32</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44394.53231481482</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13469,10 +13133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:45:28</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44394.53157407408</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13544,10 +13206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:44:46</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44394.53108796296</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13623,10 +13283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:43:35</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44394.53026620371</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13702,10 +13360,8 @@
           <t>4928279142</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:42:45</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44394.5296875</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13769,10 +13425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:42:20</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44394.52939814814</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13836,10 +13490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:41:31</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44394.52883101852</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13903,10 +13555,8 @@
           <t>4928275964</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:41:26</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44394.52877314815</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13985,10 +13635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:41:11</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44394.52859953704</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14056,10 +13704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:41:10</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44394.52858796297</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14127,10 +13773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:40:47</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44394.52832175926</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14202,10 +13846,8 @@
           <t>4928263110</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:40:13</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44394.52792824074</v>
       </c>
       <c r="I188" t="n">
         <v>2</v>
@@ -14269,10 +13911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:39:08</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44394.52717592593</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14336,10 +13976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:38:00</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44394.52638888889</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14415,10 +14053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:37:37</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44394.52612268519</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14494,10 +14130,8 @@
           <t>4928246666</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:37:28</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44394.52601851852</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14561,10 +14195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:37:06</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44394.52576388889</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14627,10 +14259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:36:53</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44394.52561342593</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14690,10 +14320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:36:46</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44394.52553240741</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14760,10 +14388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:36:41</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44394.52547453704</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14823,10 +14449,8 @@
           <t>4928228754</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:36:16</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44394.52518518519</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14890,10 +14514,8 @@
           <t>4928227783</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:35:51</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44394.52489583333</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14961,10 +14583,8 @@
           <t>4928226804</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:35:25</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44394.52459490741</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -15024,10 +14644,8 @@
           <t>4928017049</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:35:07</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44394.52438657408</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15095,10 +14713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:34:59</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44394.52429398148</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15162,10 +14778,8 @@
           <t>4928032288</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:34:03</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44394.52364583333</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15233,10 +14847,8 @@
           <t>4928212701</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:33:44</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44394.52342592592</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15296,10 +14908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:33:11</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44394.52304398148</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15375,10 +14985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:33:08</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44394.52300925926</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15438,10 +15046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:33:05</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44394.52297453704</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15517,10 +15123,8 @@
           <t>4928207467</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:32:51</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44394.5228125</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15588,10 +15192,8 @@
           <t>4928204017</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:32:29</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44394.52255787037</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15667,10 +15269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:32:09</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44394.52232638889</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15738,10 +15338,8 @@
           <t>4928183588</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:30:59</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44394.52151620371</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15801,10 +15399,8 @@
           <t>4928183588</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:29:59</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44394.52082175926</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15876,10 +15472,8 @@
           <t>4928179306</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:29:47</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44394.52068287037</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15947,10 +15541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:29:45</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44394.52065972222</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16014,10 +15606,8 @@
           <t>4928186529</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:29:37</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44394.52056712963</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16085,10 +15675,8 @@
           <t>4928177099</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:28:55</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44394.52008101852</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16152,10 +15740,8 @@
           <t>4928017049</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:28:49</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44394.52001157407</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16227,10 +15813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:28:34</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44394.51983796297</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16298,10 +15882,8 @@
           <t>4928180058</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:28:29</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44394.5197800926</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16373,10 +15955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:28:17</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44394.5196412037</v>
       </c>
       <c r="I219" t="n">
         <v>3</v>
@@ -16444,10 +16024,8 @@
           <t>4928164113</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:27:46</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44394.5192824074</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16511,10 +16089,8 @@
           <t>4928066066</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:27:05</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44394.51880787037</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16582,10 +16158,8 @@
           <t>4928124056</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:26:56</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44394.5187037037</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16653,10 +16227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:26:49</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44394.51862268519</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
@@ -16724,10 +16296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:26:39</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44394.51850694444</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16799,10 +16369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:26:30</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44394.51840277778</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16878,10 +16446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:26:21</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44394.51829861111</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16958,10 +16524,8 @@
           <t>4928017049</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:25:18</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44394.51756944445</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17033,10 +16597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:24:14</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44394.5168287037</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17108,10 +16670,8 @@
           <t>4928139745</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:24:06</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44394.51673611111</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17179,10 +16739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:23:54</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44394.51659722222</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17258,10 +16816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:23:40</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44394.51643518519</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17333,10 +16889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:22:43</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44394.51577546296</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17408,10 +16962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:22:29</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44394.51561342592</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17487,10 +17039,8 @@
           <t>4928127245</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:22:11</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44394.51540509259</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17554,10 +17104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:21:59</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44394.51526620371</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17625,10 +17173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:21:58</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44394.51525462963</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17696,10 +17242,8 @@
           <t>4928124148</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:21:57</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44394.51524305555</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17771,10 +17315,8 @@
           <t>4928124056</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:21:55</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44394.51521990741</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17842,10 +17384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:21:43</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44394.51508101852</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17917,10 +17457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:21:37</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44394.51501157408</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17996,10 +17534,8 @@
           <t>4928066066</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:20:48</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44394.51444444444</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18075,10 +17611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:20:44</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44394.51439814815</v>
       </c>
       <c r="I242" t="n">
         <v>7</v>
@@ -18150,10 +17684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:20:34</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44394.51428240741</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18225,10 +17757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:20:21</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44394.51413194444</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18296,10 +17826,8 @@
           <t>4928030160</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:17:56</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44394.5124537037</v>
       </c>
       <c r="I245" t="n">
         <v>3</v>
@@ -18367,10 +17895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:17:18</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44394.51201388889</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18442,10 +17968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:17:07</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44394.51188657407</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18509,10 +18033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:17:02</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44394.5118287037</v>
       </c>
       <c r="I248" t="n">
         <v>10</v>
@@ -18580,10 +18102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:16:52</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44394.51171296297</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18659,10 +18179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:16:14</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44394.51127314815</v>
       </c>
       <c r="I250" t="n">
         <v>17</v>
@@ -18738,10 +18256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:15:25</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44394.51070601852</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18813,10 +18329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:15:23</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44394.51068287037</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18892,10 +18406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:15:22</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44394.5106712963</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18959,10 +18471,8 @@
           <t>4928017049</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:14:39</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44394.51017361111</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19029,10 +18539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:14:32</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44394.51009259259</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19096,10 +18604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:14:25</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44394.51001157407</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19175,10 +18681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:14:10</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44394.50983796296</v>
       </c>
       <c r="I257" t="n">
         <v>6</v>
@@ -19246,10 +18750,8 @@
           <t>4928066157</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:13:55</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44394.50966435186</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19325,10 +18827,8 @@
           <t>4928066066</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:13:53</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44394.5096412037</v>
       </c>
       <c r="I259" t="n">
         <v>3</v>
@@ -19396,10 +18896,8 @@
           <t>4928017049</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:13:20</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44394.50925925926</v>
       </c>
       <c r="I260" t="n">
         <v>2</v>
@@ -19467,10 +18965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:12:45</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44394.50885416667</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19546,10 +19042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:12:18</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44394.50854166667</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19617,10 +19111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:11:00</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44394.50763888889</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19692,10 +19184,8 @@
           <t>4928032288</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:10:45</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44394.50746527778</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19763,10 +19253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:10:43</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44394.50744212963</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19838,10 +19326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:10:10</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44394.50706018518</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19913,10 +19399,8 @@
           <t>4928041396</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:10:09</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44394.50704861111</v>
       </c>
       <c r="I267" t="n">
         <v>4</v>
@@ -19984,10 +19468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:10:03</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44394.50697916667</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20063,10 +19545,8 @@
           <t>4928032288</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:09:27</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44394.5065625</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20134,10 +19614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:09:23</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44394.50651620371</v>
       </c>
       <c r="I270" t="n">
         <v>151</v>
@@ -20213,10 +19691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:09:23</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44394.50651620371</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20292,10 +19768,8 @@
           <t>4928032065</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:09:22</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44394.50650462963</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20359,10 +19833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:09:21</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44394.50649305555</v>
       </c>
       <c r="I273" t="n">
         <v>3</v>
@@ -20426,10 +19898,8 @@
           <t>4928035434</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:09:19</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44394.50646990741</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20505,10 +19975,8 @@
           <t>4928017049</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:09:18</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44394.50645833334</v>
       </c>
       <c r="I275" t="n">
         <v>9</v>
@@ -20572,10 +20040,8 @@
           <t>4928031507</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:09:09</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44394.50635416667</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20643,10 +20109,8 @@
           <t>4928030160</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:08:37</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44394.5059837963</v>
       </c>
       <c r="I277" t="n">
         <v>11</v>
@@ -20714,10 +20178,8 @@
           <t>4928030137</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:08:37</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44394.5059837963</v>
       </c>
       <c r="I278" t="n">
         <v>3</v>
@@ -20794,10 +20256,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:08:34</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44394.50594907408</v>
       </c>
       <c r="I279" t="n">
         <v>3</v>
@@ -20865,10 +20325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:08:12</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44394.50569444444</v>
       </c>
       <c r="I280" t="n">
         <v>162</v>
@@ -20940,10 +20398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:08:03</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44394.50559027777</v>
       </c>
       <c r="I281" t="n">
         <v>2</v>
@@ -21012,10 +20468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:07:59</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44394.50554398148</v>
       </c>
       <c r="I282" t="n">
         <v>28</v>
@@ -21075,10 +20529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:07:54</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44394.50548611111</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21142,10 +20594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:07:53</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44394.50547453704</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21213,10 +20663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:07:31</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44394.50521990741</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21280,10 +20728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:07:30</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44394.50520833334</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21359,10 +20805,8 @@
           <t>4928017049</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:07:25</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44394.50515046297</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21430,10 +20874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:07:01</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44394.50487268518</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21501,10 +20943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:06:59</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44394.50484953704</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21580,10 +21020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:06:50</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44394.50474537037</v>
       </c>
       <c r="I290" t="n">
         <v>75</v>
@@ -21651,10 +21089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:06:35</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44394.50457175926</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21730,10 +21166,8 @@
           <t>4928004790</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:06:34</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44394.50456018518</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21809,10 +21243,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:06:18</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44394.504375</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21880,10 +21312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:06:12</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44394.50430555556</v>
       </c>
       <c r="I294" t="n">
         <v>4</v>
@@ -21947,10 +21377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:06:07</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44394.50424768519</v>
       </c>
       <c r="I295" t="n">
         <v>44</v>
@@ -22014,10 +21442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:06:06</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44394.50423611111</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22093,10 +21519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:56</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44394.50412037037</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22168,10 +21592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:48</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44394.50402777778</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22235,10 +21657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:41</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44394.50394675926</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22315,10 +21735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:25</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44394.50376157407</v>
       </c>
       <c r="I300" t="n">
         <v>2</v>
@@ -22394,10 +21812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:25</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44394.50376157407</v>
       </c>
       <c r="I301" t="n">
         <v>3</v>
@@ -22465,10 +21881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:22</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44394.50372685185</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22544,10 +21958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:18</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44394.50368055556</v>
       </c>
       <c r="I303" t="n">
         <v>115</v>
@@ -22623,10 +22035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:17</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44394.50366898148</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22698,10 +22108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:16</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44394.5036574074</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22773,10 +22181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:13</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44394.50362268519</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22848,10 +22254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:11</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44394.50359953703</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22919,10 +22323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:11</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44394.50359953703</v>
       </c>
       <c r="I308" t="n">
         <v>488</v>
@@ -22998,10 +22400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:10</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44394.50358796296</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23073,10 +22473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:04</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44394.50351851852</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23148,10 +22546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:05:01</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44394.5034837963</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23219,10 +22615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:04:59</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44394.50346064815</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23286,10 +22680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:04:53</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44394.5033912037</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23365,10 +22757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:04:52</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44394.50337962963</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23436,10 +22826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:04:52</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44394.50337962963</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23503,10 +22891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:04:30</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44394.503125</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23570,10 +22956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:04:27</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44394.50309027778</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23645,10 +23029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-17 12:04:18</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44394.50298611111</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
